--- a/data/trans_dic/P19F$tarde-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2561725365234367</v>
+        <v>0.2575026873699016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2998048380844496</v>
+        <v>0.2957779856192967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2877015307671187</v>
+        <v>0.2963202117714082</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3782122551424981</v>
+        <v>0.3793827324653258</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4332806075319313</v>
+        <v>0.4377296375900553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3836424900017072</v>
+        <v>0.3850699398405757</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2721656889805683</v>
+        <v>0.2760625499752988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3241672620029241</v>
+        <v>0.3193459252453334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3123617974872261</v>
+        <v>0.3121234619744704</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3717215342511105</v>
+        <v>0.3735333758647233</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4327093952437724</v>
+        <v>0.4309752643587024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3869166551432645</v>
+        <v>0.3876391175622442</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3089074399852386</v>
+        <v>0.3120205934402438</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2720723733538457</v>
+        <v>0.2692576109378871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3032769460912932</v>
+        <v>0.3024935709584767</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4110293873409246</v>
+        <v>0.4125870918188815</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3705014183521844</v>
+        <v>0.3676358792106583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3784368205599041</v>
+        <v>0.3774886039035729</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.292936500715843</v>
+        <v>0.2940662467259516</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2560867552264036</v>
+        <v>0.2596841156309923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2877414799774158</v>
+        <v>0.2928474842818355</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3990146902534297</v>
+        <v>0.4007410748918444</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3590811830498683</v>
+        <v>0.3633406929254293</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3649092109174362</v>
+        <v>0.3677774835891531</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.212873111387923</v>
+        <v>0.2175165261596057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2675289223485018</v>
+        <v>0.2709324044113699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2578685095402992</v>
+        <v>0.2641020651434297</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3306160435031975</v>
+        <v>0.3344776739745927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3985732095817868</v>
+        <v>0.3947970102332592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3462510203404656</v>
+        <v>0.3471577187709746</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1546338371610015</v>
+        <v>0.1502462540206176</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1856295059715633</v>
+        <v>0.1883913936909685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1880571913924323</v>
+        <v>0.1865167747602292</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2761210742300279</v>
+        <v>0.2771370087114959</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3139401782536328</v>
+        <v>0.3144966718279301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2786454112288482</v>
+        <v>0.2794928787955283</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1656698278709039</v>
+        <v>0.1662932339109853</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2141518678658284</v>
+        <v>0.2099008387668109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2117019373103076</v>
+        <v>0.2051181906931305</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3038146990510475</v>
+        <v>0.3073141901865729</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3577057969012551</v>
+        <v>0.364593631554935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3157506595860607</v>
+        <v>0.3128966928292168</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>58682</v>
+        <v>58987</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53446</v>
+        <v>52728</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>117193</v>
+        <v>120703</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86638</v>
+        <v>86906</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>77240</v>
+        <v>78033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>156273</v>
+        <v>156855</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89334</v>
+        <v>90613</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88107</v>
+        <v>86796</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>187426</v>
+        <v>187283</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>122012</v>
+        <v>122606</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>117608</v>
+        <v>117136</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>232161</v>
+        <v>232594</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>107371</v>
+        <v>108453</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>88665</v>
+        <v>87748</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>204248</v>
+        <v>203720</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>142866</v>
+        <v>143408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>120742</v>
+        <v>119808</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>254866</v>
+        <v>254227</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>99455</v>
+        <v>99839</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>84772</v>
+        <v>85963</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>192943</v>
+        <v>196367</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>135470</v>
+        <v>136056</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118867</v>
+        <v>120277</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>244687</v>
+        <v>246610</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50096</v>
+        <v>51189</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>70311</v>
+        <v>71205</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>128457</v>
+        <v>131562</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77805</v>
+        <v>78714</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104751</v>
+        <v>103759</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172485</v>
+        <v>172937</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26844</v>
+        <v>26082</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>34305</v>
+        <v>34815</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>67400</v>
+        <v>66848</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47934</v>
+        <v>48110</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>58017</v>
+        <v>58120</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>99867</v>
+        <v>100170</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>20785</v>
+        <v>20863</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>40247</v>
+        <v>39448</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>66347</v>
+        <v>64283</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>38116</v>
+        <v>38555</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>67227</v>
+        <v>68521</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>98955</v>
+        <v>98061</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
     </row>
     <row r="36">
